--- a/Scrum/Proyect/Agile-test-plan-template - V2.xlsx
+++ b/Scrum/Proyect/Agile-test-plan-template - V2.xlsx
@@ -1,803 +1,134 @@
 
-<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <Application>Microsoft Macintosh Excel</Application>
-  <DocSecurity>0</DocSecurity>
-  <ScaleCrop>false</ScaleCrop>
-  <HeadingPairs>
-    <vt:vector size="2" baseType="variant">
-      <vt:variant>
-        <vt:lpstr>Worksheets</vt:lpstr>
-      </vt:variant>
-      <vt:variant>
-        <vt:i4>2</vt:i4>
-      </vt:variant>
-    </vt:vector>
-  </HeadingPairs>
-  <TitlesOfParts>
-    <vt:vector size="2" baseType="lpstr">
-      <vt:lpstr>Sheet1</vt:lpstr>
-      <vt:lpstr>Sheet2</vt:lpstr>
-    </vt:vector>
-  </TitlesOfParts>
-  <Company/>
-  <LinksUpToDate>false</LinksUpToDate>
-  <SharedDoc>false</SharedDoc>
-  <HyperlinksChanged>false</HyperlinksChanged>
-  <AppVersion>14.0300</AppVersion>
-</Properties>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisma\Documents\Visual Studio 2015\Projects\WindowsFormsApplication3\Scrum\Proyect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="1425" yWindow="3060" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="140000"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
-<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
-<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <dc:creator>Emily Esposito</dc:creator>
-  <cp:lastModifiedBy>Emily Esposito</cp:lastModifiedBy>
-  <dcterms:created xsi:type="dcterms:W3CDTF">2016-02-09T21:44:44Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2016-02-17T22:48:42Z</dcterms:modified>
-</cp:coreProperties>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+  <si>
+    <t>Agile Test Plan</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Browser:</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Version:</t>
+  </si>
+  <si>
+    <t>Written By:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Tested By:</t>
+  </si>
+  <si>
+    <t>Tested On:</t>
+  </si>
+  <si>
+    <t>Test #</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass?</t>
+  </si>
+  <si>
+    <t>Compare actual scenario vs sw scenario</t>
+  </si>
+  <si>
+    <t>Report very similar</t>
+  </si>
+  <si>
+    <t>Compare original games vs sw games</t>
+  </si>
+  <si>
+    <t>To be included all from orig.</t>
+  </si>
+  <si>
+    <t>Compare L10</t>
+  </si>
+  <si>
+    <t>Compare Pitch ERA</t>
+  </si>
+  <si>
+    <t>Compare Pitch last 3</t>
+  </si>
+  <si>
+    <t>Compare standings</t>
+  </si>
+  <si>
+    <t>Should all fit</t>
+  </si>
+  <si>
+    <t>Seems different, need to verify sources with Pablo</t>
+  </si>
+  <si>
+    <t>ALL OK</t>
+  </si>
+  <si>
+    <t>Accepted by Pablo</t>
+  </si>
+  <si>
+    <t>Just 3 games from orig. received, but checked with Pablo and says all ok (Original was not complete)</t>
+  </si>
+  <si>
+    <t>To fit with report</t>
+  </si>
+  <si>
+    <t>MLB Report</t>
+  </si>
+  <si>
+    <t>Luis Matamoros</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Need to make sure the report is filling the expectatives of Pablo</t>
+  </si>
+</sst>
 </file>
 
-<file path=xl\ctrlProps\ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$20" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$21" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$22" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$23" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$24" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$25" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Sheet2!$A$12" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$13" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Sheet2!$A$14" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$15" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$16" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$17" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$18" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\ctrlProps\ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl\drawings\drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1082"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1083"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1084"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1085"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1086"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1087"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1088"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1089"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1090"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1091"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1092"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1093"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1094"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1095"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1166972</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1473199</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7377272" y="203200"/>
-          <a:ext cx="2376327" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>587098</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="7442200"/>
-          <a:ext cx="10264498" cy="4864100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
-</file>
-
-<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -907,7 +238,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -936,6 +267,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1142,10 +476,1043 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Sheet2!$A$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$24" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Sheet2!$A$12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$13" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Sheet2!$A$14" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Sheet2!$A$15" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Sheet2!$A$16" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$17" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$18" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$19" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1094"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1095"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1465,45 +1832,25 @@
 </a:theme>
 </file>
 
-<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="1420" yWindow="3060" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:F30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1515,11 +1862,9 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="23">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Agile Test Plan</t>
-        </is>
+    <row r="2" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1542,7 +1887,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1565,7 +1910,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1588,20 +1933,20 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="18">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Project Name</t>
-        </is>
-      </c>
-      <c r="B5" s="14"/>
+    <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Browser:</t>
-        </is>
-      </c>
-      <c r="E5" s="15"/>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1619,20 +1964,20 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="18">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Test Case ID</t>
-        </is>
-      </c>
-      <c r="B6" s="14"/>
+    <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Version:</t>
-        </is>
-      </c>
-      <c r="E6" s="15"/>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1650,20 +1995,20 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="18">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Written By:</t>
-        </is>
-      </c>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Description:</t>
-        </is>
-      </c>
-      <c r="E7" s="15"/>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1681,20 +2026,18 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="18">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Tested By:</t>
-        </is>
+    <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Tested On:</t>
-        </is>
-      </c>
-      <c r="E8" s="15"/>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16">
+        <v>42985</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1712,7 +2055,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="18">
+    <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1735,36 +2078,24 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="28" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>Test #</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>Expected Results</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>Actual Results</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>Pass?</t>
-        </is>
+    <row r="10" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1782,27 +2113,21 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="22" customHeight="1">
+    <row r="11" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="11">
         <v>42435</v>
       </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Logging in</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Should get to home screen</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>User directed to different page</t>
-        </is>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
@@ -1821,27 +2146,21 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="22" customHeight="1">
+    <row r="12" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="11">
         <v>42441</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Signing up for webinar</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Get confirmation email</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>Confirmation email received</t>
-        </is>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
@@ -1860,27 +2179,21 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="22" customHeight="1">
+    <row r="13" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="11">
         <v>42449</v>
       </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Click magnifying glass</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>Whole page gets bigger</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>Text changes sizes</t>
-        </is>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
@@ -1899,27 +2212,21 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="22" customHeight="1">
+    <row r="14" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="11">
         <v>42461</v>
       </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>Click blog post hero image</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>Go to blog post</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>Go to blog post</t>
-        </is>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
@@ -1938,12 +2245,20 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="22" customHeight="1">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1961,12 +2276,20 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="22" customHeight="1">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1984,8 +2307,10 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="22" customHeight="1">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2007,8 +2332,10 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="22" customHeight="1">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2030,8 +2357,10 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="22" customHeight="1">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2053,8 +2382,10 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="22" customHeight="1">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2076,7 +2407,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="22" customHeight="1">
+    <row r="21" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2099,7 +2430,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="22" customHeight="1">
+    <row r="22" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2122,7 +2453,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="22" customHeight="1">
+    <row r="23" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2145,7 +2476,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="22" customHeight="1">
+    <row r="24" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2168,7 +2499,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" ht="22" customHeight="1">
+    <row r="25" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2191,7 +2522,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2214,12 +2545,8 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="13" t="inlineStr">
-        <is>
-          <t>Create a Test Plan in Smartsheet</t>
-        </is>
-      </c>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -2241,7 +2568,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2264,7 +2591,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2287,7 +2614,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2310,7 +2637,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2333,7 +2660,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2356,7 +2683,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2379,7 +2706,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2402,7 +2729,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2425,7 +2752,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2448,7 +2775,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2471,7 +2798,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2494,7 +2821,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2517,7 +2844,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2540,7 +2867,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2563,7 +2890,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2586,7 +2913,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2609,7 +2936,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2632,7 +2959,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2655,7 +2982,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2678,7 +3005,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2701,7 +3028,7 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2724,7 +3051,7 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2747,7 +3074,7 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2770,7 +3097,7 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2793,7 +3120,7 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2816,7 +3143,7 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2839,7 +3166,7 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2862,7 +3189,7 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2885,7 +3212,7 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2908,7 +3235,7 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2931,7 +3258,7 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2954,7 +3281,7 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2977,7 +3304,7 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3000,7 +3327,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3023,7 +3350,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3046,7 +3373,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3069,7 +3396,7 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3092,7 +3419,7 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3115,7 +3442,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3138,7 +3465,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3173,42 +3500,16 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1"/>
-    <hyperlink ref="B27" r:id="rId2" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="C27" r:id="rId3" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="D27" r:id="rId4" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="E27" r:id="rId5" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="F27" r:id="rId6" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="A28" r:id="rId7" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="B28" r:id="rId8" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="C28" r:id="rId9" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="D28" r:id="rId10" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="E28" r:id="rId11" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="F28" r:id="rId12" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="A29" r:id="rId13" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="B29" r:id="rId14" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="C29" r:id="rId15" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="D29" r:id="rId16" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="E29" r:id="rId17" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="F29" r:id="rId18" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="A30" r:id="rId19" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="B30" r:id="rId20" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="C30" r:id="rId21" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="D30" r:id="rId22" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="E30" r:id="rId23" display="Create a Test Plan in Smartsheet"/>
-    <hyperlink ref="F30" r:id="rId24" display="Create a Test Plan in Smartsheet"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId25"/>
-  <legacyDrawing r:id="rId26"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId27" name="Check Box 1">
+            <control shapeId="1025" r:id="rId3" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3219,7 +3520,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3227,11 +3528,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId28" name="Check Box 58">
+            <control shapeId="1082" r:id="rId4" name="Check Box 58">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3242,7 +3542,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3250,11 +3550,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId29" name="Check Box 59">
+            <control shapeId="1083" r:id="rId5" name="Check Box 59">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3265,7 +3564,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3273,11 +3572,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId30" name="Check Box 60">
+            <control shapeId="1084" r:id="rId6" name="Check Box 60">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3288,7 +3586,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3296,11 +3594,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId31" name="Check Box 61">
+            <control shapeId="1085" r:id="rId7" name="Check Box 61">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3311,7 +3608,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3319,11 +3616,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId32" name="Check Box 62">
+            <control shapeId="1086" r:id="rId8" name="Check Box 62">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3334,7 +3630,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3342,11 +3638,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1087" r:id="rId33" name="Check Box 63">
+            <control shapeId="1087" r:id="rId9" name="Check Box 63">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3357,7 +3652,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3365,11 +3660,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1088" r:id="rId34" name="Check Box 64">
+            <control shapeId="1088" r:id="rId10" name="Check Box 64">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3380,7 +3674,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3388,11 +3682,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1089" r:id="rId35" name="Check Box 65">
+            <control shapeId="1089" r:id="rId11" name="Check Box 65">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3403,7 +3696,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3411,11 +3704,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1090" r:id="rId36" name="Check Box 66">
+            <control shapeId="1090" r:id="rId12" name="Check Box 66">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3426,7 +3718,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3434,11 +3726,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1091" r:id="rId37" name="Check Box 67">
+            <control shapeId="1091" r:id="rId13" name="Check Box 67">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3449,7 +3740,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3457,11 +3748,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1092" r:id="rId38" name="Check Box 68">
+            <control shapeId="1092" r:id="rId14" name="Check Box 68">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3472,7 +3762,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3480,11 +3770,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1093" r:id="rId39" name="Check Box 69">
+            <control shapeId="1093" r:id="rId15" name="Check Box 69">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3495,7 +3784,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3503,11 +3792,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1094" r:id="rId40" name="Check Box 70">
+            <control shapeId="1094" r:id="rId16" name="Check Box 70">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3518,7 +3806,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3526,11 +3814,10 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1095" r:id="rId41" name="Check Box 71">
+            <control shapeId="1095" r:id="rId17" name="Check Box 71">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3541,7 +3828,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3549,11 +3836,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3855,7 +4140,7 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A11:A25"/>
   <sheetViews>
@@ -3863,79 +4148,79 @@
       <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="b">
         <v>0</v>
       </c>
